--- a/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Roed/resultaterR.xlsx
+++ b/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Roed/resultaterR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="0" windowWidth="25360" windowHeight="15580" tabRatio="500"/>
+    <workbookView xWindow="7480" yWindow="0" windowWidth="25360" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Mean værdier</t>
   </si>
@@ -188,8 +188,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -259,7 +267,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="65">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
@@ -288,6 +296,10 @@
     <cellStyle name="Besøgt link" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -316,6 +328,10 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:F62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -847,7 +863,15 @@
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -1007,7 +1031,15 @@
       <c r="G22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">

--- a/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Roed/resultaterR.xlsx
+++ b/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Roed/resultaterR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="0" windowWidth="25360" windowHeight="15580" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1059,7 +1059,7 @@
       <c r="G23" s="6">
         <v>1.7924</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="8">
         <f>G23-F23</f>
         <v>0.11299999999999999</v>
       </c>

--- a/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Roed/resultaterR.xlsx
+++ b/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Roed/resultaterR.xlsx
@@ -664,7 +664,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -917,7 +917,7 @@
         <v>1.7917000000000001</v>
       </c>
       <c r="K14">
-        <f>F14+H14*90</f>
+        <f>F14+(H14*90)</f>
         <v>11.510499999999997</v>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>1.7924</v>
       </c>
       <c r="K23">
-        <f>F23+H23*90</f>
+        <f>F23+(H23*90)</f>
         <v>11.849399999999997</v>
       </c>
     </row>
